--- a/Assets/Other/Excel/cardRare.xlsx
+++ b/Assets/Other/Excel/cardRare.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\方案\2已结束的方案\离谱小说家\github同步文件夹\新建文件夹\Nonsense_Novelist\Assets\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995A599C-DD99-427D-B188-5A4B748C8E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="870" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="cardRare" sheetId="1" r:id="rId1"/>
@@ -80,11 +74,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,21 +109,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -133,9 +455,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -149,24 +713,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -416,34 +1024,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="36.125" customWidth="1"/>
-    <col min="4" max="4" width="52.875" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="36.1296296296296" customWidth="1"/>
+    <col min="4" max="4" width="52.8796296296296" customWidth="1"/>
+    <col min="5" max="5" width="14.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" ht="15.6" spans="1:4">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" ht="15.6" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +1071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+    <row r="3" ht="24" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -483,7 +1091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" ht="15.6" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -503,7 +1111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>0</v>
       </c>
@@ -520,11 +1128,11 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <f>B5+C5+D5+E5</f>
+        <f t="shared" ref="F5:F13" si="0">B5+C5+D5+E5</f>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -541,11 +1149,11 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <f>B6+C6+D6+E6</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>2</v>
       </c>
@@ -562,11 +1170,11 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <f>B7+C7+D7+E7</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>3</v>
       </c>
@@ -583,11 +1191,11 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <f>B8+C8+D8+E8</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>4</v>
       </c>
@@ -604,11 +1212,11 @@
         <v>15</v>
       </c>
       <c r="F9">
-        <f>B9+C9+D9+E9</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>5</v>
       </c>
@@ -625,11 +1233,11 @@
         <v>25</v>
       </c>
       <c r="F10">
-        <f>B10+C10+D10+E10</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>6</v>
       </c>
@@ -646,11 +1254,11 @@
         <v>38</v>
       </c>
       <c r="F11">
-        <f>B11+C11+D11+E11</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>7</v>
       </c>
@@ -667,11 +1275,11 @@
         <v>38</v>
       </c>
       <c r="F12">
-        <f>B12+C12+D12+E12</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -688,13 +1296,13 @@
         <v>38</v>
       </c>
       <c r="F13">
-        <f>B13+C13+D13+E13</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Other/Excel/cardRare.xlsx
+++ b/Assets/Other/Excel/cardRare.xlsx
@@ -27,11 +27,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>stage</t>
   </si>
   <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>LoseHp</t>
+  </si>
+  <si>
+    <t>eventCount</t>
+  </si>
+  <si>
+    <t>eventKey</t>
+  </si>
+  <si>
     <t>rate1</t>
   </si>
   <si>
@@ -47,9 +59,45 @@
     <t>sum</t>
   </si>
   <si>
+    <t>Monster1</t>
+  </si>
+  <si>
+    <t>Monster1Rate</t>
+  </si>
+  <si>
+    <t>Monster2</t>
+  </si>
+  <si>
+    <t>Monster2Rate</t>
+  </si>
+  <si>
+    <t>EliteRate</t>
+  </si>
+  <si>
+    <t>EliteCount</t>
+  </si>
+  <si>
+    <t>HardMonsterCount</t>
+  </si>
+  <si>
+    <t>HardEliteCount</t>
+  </si>
+  <si>
     <t>游戏阶段</t>
   </si>
   <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>失败损失生命</t>
+  </si>
+  <si>
+    <t>事件数量</t>
+  </si>
+  <si>
+    <t>是否出现重要事件</t>
+  </si>
+  <si>
     <t>稀有度1的卡牌概率</t>
   </si>
   <si>
@@ -62,27 +110,116 @@
     <t>稀有度4的卡牌概率</t>
   </si>
   <si>
-    <t>检查</t>
+    <t>概率检查（不读取）</t>
+  </si>
+  <si>
+    <t>怪物数量组1</t>
+  </si>
+  <si>
+    <t>组1出现概率</t>
+  </si>
+  <si>
+    <t>怪物数量组2</t>
+  </si>
+  <si>
+    <t>组2出现概率</t>
+  </si>
+  <si>
+    <t>精英怪概率</t>
+  </si>
+  <si>
+    <t>精英怪数量限制</t>
+  </si>
+  <si>
+    <t>高难危机怪物数</t>
+  </si>
+  <si>
+    <t>高难危机精英怪数</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>1级</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2级</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>3级</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>4级</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>5级</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>6级</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>7级</t>
+  </si>
+  <si>
+    <t>8级</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>9级</t>
+  </si>
+  <si>
+    <t>0.8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,13 +237,6 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -573,137 +703,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,12 +842,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1030,29 +1154,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E11" sqref="E11:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="33.5" customWidth="1"/>
     <col min="3" max="3" width="36.1296296296296" customWidth="1"/>
-    <col min="4" max="4" width="52.8796296296296" customWidth="1"/>
-    <col min="5" max="5" width="14.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="15.9444444444444" customWidth="1"/>
+    <col min="5" max="6" width="14.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:4">
+    <row r="1" ht="15.6" spans="1:8">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="15.6" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="24" spans="1:18">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1067,238 +1195,671 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" ht="24" spans="1:6">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="36" spans="1:18">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>70</v>
+      </c>
+      <c r="G5" s="2">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>100</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>100</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>2</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2">
+        <v>35</v>
+      </c>
+      <c r="H7" s="2">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>100</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
+        <v>100</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2</v>
+      </c>
+      <c r="R8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="2">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2">
+        <v>35</v>
+      </c>
+      <c r="I9" s="2">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2">
+        <v>100</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="M9" s="2">
+        <v>3</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2">
+        <v>40</v>
+      </c>
+      <c r="I10" s="2">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2">
+        <v>100</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="2">
+        <v>3</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>3</v>
+      </c>
+      <c r="R10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="2">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2">
+        <v>37</v>
+      </c>
+      <c r="I11" s="2">
+        <v>38</v>
+      </c>
+      <c r="J11" s="2">
+        <v>100</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="M11" s="2">
+        <v>3</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>3</v>
+      </c>
+      <c r="R11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="2">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2">
+        <v>37</v>
+      </c>
+      <c r="I12" s="2">
+        <v>38</v>
+      </c>
+      <c r="J12" s="2">
+        <v>100</v>
+      </c>
+      <c r="K12" s="2">
+        <v>3</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>3</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>3</v>
+      </c>
+      <c r="R12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
+      <c r="G13" s="2">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2">
+        <v>37</v>
+      </c>
+      <c r="I13" s="2">
+        <v>38</v>
+      </c>
+      <c r="J13" s="2">
+        <v>100</v>
+      </c>
+      <c r="K13" s="2">
+        <v>3</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
+        <v>3</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>3</v>
+      </c>
+      <c r="R13" s="2">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>70</v>
-      </c>
-      <c r="C5" s="3">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F13" si="0">B5+C5+D5+E5</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
-        <v>50</v>
-      </c>
-      <c r="C6" s="3">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3">
-        <v>35</v>
-      </c>
-      <c r="C7" s="3">
-        <v>35</v>
-      </c>
-      <c r="D7" s="3">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3">
-        <v>35</v>
-      </c>
-      <c r="D8" s="3">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3">
-        <v>30</v>
-      </c>
-      <c r="D9" s="3">
-        <v>35</v>
-      </c>
-      <c r="E9" s="3">
-        <v>15</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3">
-        <v>40</v>
-      </c>
-      <c r="E10" s="3">
-        <v>25</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3">
-        <v>37</v>
-      </c>
-      <c r="E11" s="3">
-        <v>38</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3">
-        <v>37</v>
-      </c>
-      <c r="E12" s="3">
-        <v>38</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3">
-        <v>15</v>
-      </c>
-      <c r="D13" s="3">
-        <v>37</v>
-      </c>
-      <c r="E13" s="3">
-        <v>38</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
